--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2D328-3AA7-48F9-859A-40E3F36F7644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB598582-FB05-4147-8442-FD76D4DB88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,31 +2163,55 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="9">
         <v>45031</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="9">
         <v>45032</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="12">
         <v>45033</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -2312,11 +2336,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2354,7 +2378,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2388,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB598582-FB05-4147-8442-FD76D4DB88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A703CD-30A0-4734-B1A4-EDA2E25C96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,13 +2214,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>45034</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10">
+        <v>54</v>
+      </c>
+      <c r="E19" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
@@ -2336,11 +2344,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2378,7 +2386,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,7 +2396,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A703CD-30A0-4734-B1A4-EDA2E25C96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9931554-6DB9-4504-B392-332B6D69B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="10">
         <v>54</v>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9931554-6DB9-4504-B392-332B6D69B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B56E0-FBF2-4B3B-A4D2-E40374991D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,13 +2231,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>45035</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>54</v>
+      </c>
+      <c r="E20" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
@@ -2344,11 +2352,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2386,7 +2394,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,7 +2404,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B56E0-FBF2-4B3B-A4D2-E40374991D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE08F7-4D6D-4FEB-8484-73471EB334F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A20:E20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,13 +2248,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>45036</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10">
+        <v>54</v>
+      </c>
+      <c r="E21" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -2352,11 +2360,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2394,7 +2402,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,7 +2412,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE08F7-4D6D-4FEB-8484-73471EB334F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8463848E-8CBE-4694-AF1F-8298AC4B2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,13 +2265,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>45037</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10">
+        <v>54</v>
+      </c>
+      <c r="E22" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -2360,11 +2368,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2402,7 +2410,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,7 +2420,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8463848E-8CBE-4694-AF1F-8298AC4B2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD547AC0-8FD0-465B-8F30-2E4D9C4A7F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,13 +2282,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>45038</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10">
+        <v>54</v>
+      </c>
+      <c r="E23" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -2368,11 +2376,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2410,7 +2418,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,7 +2428,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD547AC0-8FD0-465B-8F30-2E4D9C4A7F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71E166-5605-470C-ABB6-37C6E8140BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,13 +2299,21 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="9">
         <v>45039</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10">
+        <v>54</v>
+      </c>
+      <c r="E24" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -2376,11 +2384,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2418,7 +2426,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2428,7 +2436,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71E166-5605-470C-ABB6-37C6E8140BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B88394-F848-47A9-B69E-DA1EAFB093F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,22 +2316,38 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="9">
         <v>45040</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10">
+        <v>54</v>
+      </c>
+      <c r="E25" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="9">
         <v>45041</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10">
+        <v>54</v>
+      </c>
+      <c r="E26" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -2384,11 +2400,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2426,7 +2442,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2452,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B88394-F848-47A9-B69E-DA1EAFB093F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6408C7-F9CE-4445-8259-82BCE1CA09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C1048576"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,13 +2350,21 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="12">
         <v>45042</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18">

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6408C7-F9CE-4445-8259-82BCE1CA09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F46CB9-2E09-4019-AFC4-C25204C18E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +95,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,19 +123,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -209,14 +202,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,10 +1332,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1898,15 +1891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,10 +1912,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2367,13 +2360,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="26">
         <v>45043</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10">
+        <v>54</v>
+      </c>
+      <c r="E28" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
@@ -2391,7 +2392,7 @@
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
@@ -2408,11 +2409,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2437,30 +2438,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F46CB9-2E09-4019-AFC4-C25204C18E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89BBBE-305B-407E-B05F-4B99F20B1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,13 +203,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1332,10 +1332,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,10 +1912,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2360,7 +2360,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>45043</v>
       </c>
       <c r="B28" s="10">
@@ -2377,13 +2377,21 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="24">
         <v>45044</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10">
+        <v>54</v>
+      </c>
+      <c r="E29" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
@@ -2409,11 +2417,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2438,30 +2446,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89BBBE-305B-407E-B05F-4B99F20B1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB2FA3-6C5B-4025-A1B6-B29D3792F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,22 +125,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,9 +186,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1332,10 +1318,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1892,14 +1878,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,10 +1898,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2360,7 +2346,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>45043</v>
       </c>
       <c r="B28" s="10">
@@ -2377,7 +2363,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>45044</v>
       </c>
       <c r="B29" s="10">
@@ -2394,13 +2380,21 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="23">
         <v>45045</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>14</v>
+      </c>
+      <c r="D30" s="10">
+        <v>54</v>
+      </c>
+      <c r="E30" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
@@ -2417,11 +2411,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2446,30 +2440,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CB2FA3-6C5B-4025-A1B6-B29D3792F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A0B32-E416-4CF3-9889-092B10C6B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,12 +86,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,20 +170,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,10 +1300,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1878,14 +1860,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,10 +1880,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2346,7 +2328,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="19">
         <v>45043</v>
       </c>
       <c r="B28" s="10">
@@ -2363,7 +2345,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="19">
         <v>45044</v>
       </c>
       <c r="B29" s="10">
@@ -2380,7 +2362,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="19">
         <v>45045</v>
       </c>
       <c r="B30" s="10">
@@ -2397,13 +2379,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>45046</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>14</v>
+      </c>
+      <c r="D31" s="10">
+        <v>54</v>
+      </c>
+      <c r="E31" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2411,11 +2401,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2440,30 +2430,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A0B32-E416-4CF3-9889-092B10C6B5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EA5A7-520C-41D0-8461-B3D0DD432951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Maio" sheetId="7" r:id="rId5"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -123,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +179,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1859,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,6 +2439,347 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1AAD-DE0C-4F84-8B76-E20B8BD69DF1}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="A1:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUM(C2:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79EA5A7-520C-41D0-8461-B3D0DD432951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034B7C6-4ACC-42E8-A342-C03AB2410A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -175,28 +175,28 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1319,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1878,15 +1878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,10 +1899,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2433,8 +2433,8 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="155" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2442,19 +2442,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1AAD-DE0C-4F84-8B76-E20B8BD69DF1}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2463,13 +2463,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>45047</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2486,277 +2486,277 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>45048</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>45049</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>45050</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>45051</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>45052</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>45053</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>45054</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>45055</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>45056</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>45057</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>45058</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>45059</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>45060</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>45061</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>45062</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>45063</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>45064</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>45065</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>45066</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>45067</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>45068</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>45069</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>45070</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>45071</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>45072</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>45073</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>45074</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>45075</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>45076</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="23">
         <v>45077</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
@@ -2790,27 +2790,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>280</v>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034B7C6-4ACC-42E8-A342-C03AB2410A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591AB64-73E8-4F4A-A0DE-094A6EB88B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +191,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,10 +1328,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1878,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
@@ -1899,10 +1908,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2442,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1AAD-DE0C-4F84-8B76-E20B8BD69DF1}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,10 +2472,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
@@ -2486,13 +2495,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="26">
         <v>45048</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="27">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27">
+        <v>54</v>
+      </c>
+      <c r="E3" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -2761,11 +2778,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2790,27 +2807,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>280</v>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591AB64-73E8-4F4A-A0DE-094A6EB88B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98858B4C-CCFA-496D-A1D5-A4846E077304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2452,7 +2452,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" s="27">
         <v>54</v>
@@ -2512,13 +2512,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="26">
         <v>45049</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27">
+        <v>54</v>
+      </c>
+      <c r="E4" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -2778,11 +2786,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98858B4C-CCFA-496D-A1D5-A4846E077304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC764B6-868D-4FB6-9A7B-F5524737DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,9 +182,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1328,10 +1325,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1908,10 +1905,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2452,12 +2449,12 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
@@ -2472,13 +2469,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>45047</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2495,50 +2492,58 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>45048</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>2</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>14</v>
       </c>
-      <c r="D3" s="27">
-        <v>54</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
+        <v>54</v>
+      </c>
+      <c r="E3" s="26">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>45049</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>14</v>
       </c>
-      <c r="D4" s="27">
-        <v>54</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="D4" s="26">
+        <v>54</v>
+      </c>
+      <c r="E4" s="26">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="25">
         <v>45050</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26">
+        <v>54</v>
+      </c>
+      <c r="E5" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>45051</v>
       </c>
       <c r="B6" s="20"/>
@@ -2547,7 +2552,7 @@
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>45052</v>
       </c>
       <c r="B7" s="20"/>
@@ -2556,7 +2561,7 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="25">
         <v>45053</v>
       </c>
       <c r="B8" s="20"/>
@@ -2565,7 +2570,7 @@
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="25">
         <v>45054</v>
       </c>
       <c r="B9" s="20"/>
@@ -2574,7 +2579,7 @@
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="25">
         <v>45055</v>
       </c>
       <c r="B10" s="20"/>
@@ -2583,7 +2588,7 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="25">
         <v>45056</v>
       </c>
       <c r="B11" s="20"/>
@@ -2592,7 +2597,7 @@
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="25">
         <v>45057</v>
       </c>
       <c r="B12" s="20"/>
@@ -2601,7 +2606,7 @@
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="25">
         <v>45058</v>
       </c>
       <c r="B13" s="20"/>
@@ -2610,7 +2615,7 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="25">
         <v>45059</v>
       </c>
       <c r="B14" s="20"/>
@@ -2619,7 +2624,7 @@
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="25">
         <v>45060</v>
       </c>
       <c r="B15" s="20"/>
@@ -2628,7 +2633,7 @@
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="25">
         <v>45061</v>
       </c>
       <c r="B16" s="20"/>
@@ -2637,7 +2642,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="25">
         <v>45062</v>
       </c>
       <c r="B17" s="20"/>
@@ -2646,7 +2651,7 @@
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="25">
         <v>45063</v>
       </c>
       <c r="B18" s="20"/>
@@ -2655,7 +2660,7 @@
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="25">
         <v>45064</v>
       </c>
       <c r="B19" s="20"/>
@@ -2664,7 +2669,7 @@
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="25">
         <v>45065</v>
       </c>
       <c r="B20" s="20"/>
@@ -2673,7 +2678,7 @@
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>45066</v>
       </c>
       <c r="B21" s="20"/>
@@ -2682,7 +2687,7 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>45067</v>
       </c>
       <c r="B22" s="20"/>
@@ -2691,7 +2696,7 @@
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="25">
         <v>45068</v>
       </c>
       <c r="B23" s="20"/>
@@ -2700,7 +2705,7 @@
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>45069</v>
       </c>
       <c r="B24" s="20"/>
@@ -2709,7 +2714,7 @@
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="25">
         <v>45070</v>
       </c>
       <c r="B25" s="20"/>
@@ -2718,7 +2723,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="25">
         <v>45071</v>
       </c>
       <c r="B26" s="20"/>
@@ -2727,7 +2732,7 @@
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>45072</v>
       </c>
       <c r="B27" s="20"/>
@@ -2736,7 +2741,7 @@
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="25">
         <v>45073</v>
       </c>
       <c r="B28" s="20"/>
@@ -2745,7 +2750,7 @@
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45074</v>
       </c>
       <c r="B29" s="20"/>
@@ -2754,7 +2759,7 @@
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>45075</v>
       </c>
       <c r="B30" s="20"/>
@@ -2763,7 +2768,7 @@
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>45076</v>
       </c>
       <c r="B31" s="20"/>
@@ -2772,7 +2777,7 @@
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="25">
         <v>45077</v>
       </c>
       <c r="B32" s="20"/>
@@ -2786,11 +2791,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2815,27 +2820,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>280</v>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC764B6-868D-4FB6-9A7B-F5524737DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA623FB-51A1-4BA8-9E3A-C70B7FB58516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2449,7 +2449,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,19 +2546,35 @@
       <c r="A6" s="25">
         <v>45051</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>14</v>
+      </c>
+      <c r="D6" s="26">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>45052</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>14</v>
+      </c>
+      <c r="D7" s="26">
+        <v>54</v>
+      </c>
+      <c r="E7" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
@@ -2791,11 +2807,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CLESIA.xlsx
+++ b/CTR CLESIA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA623FB-51A1-4BA8-9E3A-C70B7FB58516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47AD93-6505-4CCB-A0BE-6BDEE836C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2449,7 +2449,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,13 +2577,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>45053</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
